--- a/outputs/MEP_Wellbeing.xlsx
+++ b/outputs/MEP_Wellbeing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle.sharepoint.com/sites/MEPResearchGroup/Shared Documents/January wellbeing competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1077" documentId="13_ncr:1_{54C50CEC-1252-4561-82A8-023097CBBAE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{74D232A1-BD43-432A-8650-7C7E16D9DED7}"/>
+  <xr:revisionPtr revIDLastSave="1124" documentId="13_ncr:1_{54C50CEC-1252-4561-82A8-023097CBBAE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DC439F7C-DCFE-41DF-995F-55DABBA70737}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="990" windowWidth="27165" windowHeight="14610" xr2:uid="{B76FE343-09F1-7E40-9C1B-CF5F971F21D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
   <si>
     <t>Group</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Language Puzzles</t>
+  </si>
+  <si>
+    <t>Built Snowman</t>
+  </si>
+  <si>
+    <t>Games</t>
   </si>
   <si>
     <t>Andy</t>
@@ -990,11 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC1ECD6-E234-3848-B577-9FE043C9D5F4}">
-  <dimension ref="A1:BR124"/>
+  <dimension ref="A1:BR128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -3332,7 +3338,9 @@
       <c r="J37" s="21">
         <v>45</v>
       </c>
-      <c r="K37" s="23"/>
+      <c r="K37" s="23">
+        <v>30</v>
+      </c>
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
@@ -3943,7 +3951,9 @@
       </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="J44" s="23">
+        <v>40</v>
+      </c>
       <c r="K44" s="24"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
@@ -4024,8 +4034,12 @@
         <v>30</v>
       </c>
       <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
+      <c r="I46" s="23">
+        <v>60</v>
+      </c>
+      <c r="J46" s="23">
+        <v>80</v>
+      </c>
       <c r="K46" s="24"/>
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
@@ -4140,11 +4154,21 @@
       <c r="E49" s="23">
         <v>25</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
+      <c r="F49" s="23">
+        <v>20</v>
+      </c>
+      <c r="G49" s="23">
+        <v>20</v>
+      </c>
+      <c r="H49" s="23">
+        <v>25</v>
+      </c>
+      <c r="I49" s="23">
+        <v>60</v>
+      </c>
+      <c r="J49" s="23">
+        <v>40</v>
+      </c>
       <c r="K49" s="24"/>
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
@@ -4181,7 +4205,9 @@
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="H50" s="23">
+        <v>20</v>
+      </c>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
       <c r="K50" s="24"/>
@@ -4219,7 +4245,9 @@
         <v>10</v>
       </c>
       <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
+      <c r="G51" s="23">
+        <v>10</v>
+      </c>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
@@ -4245,60 +4273,64 @@
       <c r="AD51" s="23"/>
       <c r="AE51" s="21"/>
     </row>
-    <row r="52" spans="1:54" ht="15.6" customHeight="1">
+    <row r="52" spans="1:54" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A52" s="49"/>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="3"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23">
+        <v>30</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="23"/>
+      <c r="AD52" s="23"/>
+      <c r="AE52" s="21"/>
     </row>
     <row r="53" spans="1:54" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A53" s="49"/>
       <c r="B53" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="23">
-        <v>30</v>
-      </c>
+      <c r="D53" s="23"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
+      <c r="J53" s="23">
+        <v>180</v>
+      </c>
       <c r="K53" s="24"/>
       <c r="L53" s="23"/>
       <c r="M53" s="23"/>
@@ -4321,69 +4353,63 @@
       <c r="AD53" s="23"/>
       <c r="AE53" s="21"/>
     </row>
-    <row r="54" spans="1:54" s="22" customFormat="1" ht="15.6" customHeight="1">
+    <row r="54" spans="1:54" ht="15.6" customHeight="1">
       <c r="A54" s="49"/>
-      <c r="B54" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="23">
-        <v>60</v>
-      </c>
-      <c r="E54" s="23">
-        <v>75</v>
-      </c>
-      <c r="F54" s="23">
-        <v>85</v>
-      </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23">
-        <v>30</v>
-      </c>
-      <c r="K54" s="24"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="23"/>
-      <c r="AD54" s="23"/>
-      <c r="AE54" s="21"/>
+      <c r="B54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="3"/>
     </row>
     <row r="55" spans="1:54" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A55" s="49"/>
       <c r="B55" s="39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23">
-        <v>30</v>
-      </c>
-      <c r="F55" s="23"/>
+      <c r="D55" s="23">
+        <v>30</v>
+      </c>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23">
+        <v>30</v>
+      </c>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
-      <c r="K55" s="24"/>
+      <c r="K55" s="24">
+        <v>20</v>
+      </c>
       <c r="L55" s="23"/>
       <c r="M55" s="23"/>
       <c r="N55" s="23"/>
@@ -4408,20 +4434,22 @@
     <row r="56" spans="1:54" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A56" s="49"/>
       <c r="B56" s="39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23">
+        <v>56</v>
+      </c>
+      <c r="D56" s="23">
         <v>60</v>
       </c>
-      <c r="H56" s="23">
-        <v>30</v>
-      </c>
+      <c r="E56" s="23">
+        <v>75</v>
+      </c>
+      <c r="F56" s="23">
+        <v>85</v>
+      </c>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23">
         <v>30</v>
@@ -4448,100 +4476,102 @@
       <c r="AD56" s="23"/>
       <c r="AE56" s="21"/>
     </row>
-    <row r="57" spans="1:54" ht="15.6" customHeight="1">
+    <row r="57" spans="1:54" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A57" s="49"/>
-      <c r="B57" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="2">
-        <v>40</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="3"/>
-    </row>
-    <row r="58" spans="1:54" ht="15.6" customHeight="1">
+      <c r="B57" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23">
+        <v>30</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="23"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="23"/>
+      <c r="AA57" s="23"/>
+      <c r="AB57" s="23"/>
+      <c r="AC57" s="23"/>
+      <c r="AD57" s="23"/>
+      <c r="AE57" s="21"/>
+    </row>
+    <row r="58" spans="1:54" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A58" s="49"/>
-      <c r="B58" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2">
-        <v>30</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="3"/>
+      <c r="B58" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23">
+        <v>60</v>
+      </c>
+      <c r="H58" s="23">
+        <v>30</v>
+      </c>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23">
+        <v>30</v>
+      </c>
+      <c r="K58" s="24"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="23"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="23"/>
+      <c r="AC58" s="23"/>
+      <c r="AD58" s="23"/>
+      <c r="AE58" s="21"/>
     </row>
     <row r="59" spans="1:54" ht="15.6" customHeight="1">
       <c r="A59" s="49"/>
       <c r="B59" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2">
+        <v>40</v>
+      </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2">
-        <v>40</v>
-      </c>
-      <c r="G59" s="2">
-        <v>45</v>
-      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -4568,159 +4598,153 @@
       <c r="AE59" s="3"/>
     </row>
     <row r="60" spans="1:54" ht="15.6" customHeight="1">
-      <c r="A60" s="50"/>
-      <c r="B60" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="6" t="s">
+      <c r="A60" s="49"/>
+      <c r="B60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
+        <v>30</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="3"/>
+    </row>
+    <row r="61" spans="1:54" ht="15.6" customHeight="1">
+      <c r="A61" s="49"/>
+      <c r="B61" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2">
+        <v>40</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="3"/>
+    </row>
+    <row r="62" spans="1:54" ht="15.6" customHeight="1">
+      <c r="A62" s="50"/>
+      <c r="B62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
         <v>60</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="6"/>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="5"/>
-      <c r="AH60" s="5"/>
-      <c r="AI60" s="5"/>
-      <c r="AJ60" s="5"/>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="5"/>
-      <c r="AM60" s="5"/>
-      <c r="AN60" s="5"/>
-      <c r="AO60" s="5"/>
-      <c r="AP60" s="5"/>
-      <c r="AQ60" s="5"/>
-      <c r="AR60" s="5"/>
-      <c r="AS60" s="5"/>
-      <c r="AT60" s="5"/>
-      <c r="AU60" s="5"/>
-      <c r="AV60" s="5"/>
-      <c r="AW60" s="5"/>
-      <c r="AX60" s="5"/>
-      <c r="AY60" s="5"/>
-      <c r="AZ60" s="5"/>
-      <c r="BA60" s="5"/>
-      <c r="BB60" s="5"/>
-    </row>
-    <row r="61" spans="1:54" s="22" customFormat="1">
-      <c r="A61" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="21" t="s">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="5"/>
+      <c r="AP62" s="5"/>
+      <c r="AQ62" s="5"/>
+      <c r="AR62" s="5"/>
+      <c r="AS62" s="5"/>
+      <c r="AT62" s="5"/>
+      <c r="AU62" s="5"/>
+      <c r="AV62" s="5"/>
+      <c r="AW62" s="5"/>
+      <c r="AX62" s="5"/>
+      <c r="AY62" s="5"/>
+      <c r="AZ62" s="5"/>
+      <c r="BA62" s="5"/>
+      <c r="BB62" s="5"/>
+    </row>
+    <row r="63" spans="1:54" s="22" customFormat="1">
+      <c r="A63" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="23">
-        <v>30</v>
-      </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23">
-        <v>120</v>
-      </c>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23">
-        <v>30</v>
-      </c>
-      <c r="K61" s="24"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="23"/>
-      <c r="W61" s="23"/>
-      <c r="X61" s="23"/>
-      <c r="Y61" s="24"/>
-      <c r="Z61" s="23"/>
-      <c r="AA61" s="23"/>
-      <c r="AB61" s="23"/>
-      <c r="AC61" s="23"/>
-      <c r="AD61" s="23"/>
-      <c r="AE61" s="21"/>
-    </row>
-    <row r="62" spans="1:54" s="22" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A62" s="52"/>
-      <c r="B62" s="40" t="s">
+      <c r="B63" s="40" t="s">
         <v>62</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="23">
-        <v>30</v>
-      </c>
-      <c r="E62" s="23">
-        <v>90</v>
-      </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23">
-        <v>90</v>
-      </c>
-      <c r="K62" s="24"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23"/>
-      <c r="W62" s="23"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="24"/>
-      <c r="Z62" s="23"/>
-      <c r="AA62" s="23"/>
-      <c r="AB62" s="23"/>
-      <c r="AC62" s="23"/>
-      <c r="AD62" s="23"/>
-      <c r="AE62" s="21"/>
-    </row>
-    <row r="63" spans="1:54" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="52"/>
-      <c r="B63" s="20" t="s">
-        <v>60</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>63</v>
@@ -4728,19 +4752,15 @@
       <c r="D63" s="23">
         <v>30</v>
       </c>
-      <c r="E63" s="23">
-        <v>60</v>
-      </c>
-      <c r="F63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23">
+        <v>120</v>
+      </c>
       <c r="G63" s="23"/>
-      <c r="H63" s="23">
-        <v>45</v>
-      </c>
-      <c r="I63" s="23">
-        <v>120</v>
-      </c>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
       <c r="J63" s="23">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="K63" s="24"/>
       <c r="L63" s="23"/>
@@ -4764,103 +4784,113 @@
       <c r="AD63" s="23"/>
       <c r="AE63" s="21"/>
     </row>
-    <row r="64" spans="1:54" ht="15" customHeight="1">
+    <row r="64" spans="1:54" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A64" s="52"/>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="23">
+        <v>30</v>
+      </c>
+      <c r="E64" s="23">
+        <v>90</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23">
+        <v>90</v>
+      </c>
+      <c r="K64" s="24"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="23"/>
+      <c r="AD64" s="23"/>
+      <c r="AE64" s="21"/>
+    </row>
+    <row r="65" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="52"/>
+      <c r="B65" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="2">
-        <v>10</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D65" s="23">
+        <v>30</v>
+      </c>
+      <c r="E65" s="23">
         <v>60</v>
       </c>
-      <c r="F64" s="2">
-        <v>30</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="3"/>
-    </row>
-    <row r="65" spans="1:31" ht="15" customHeight="1">
-      <c r="A65" s="52"/>
-      <c r="B65" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2">
-        <v>60</v>
-      </c>
-      <c r="F65" s="2">
-        <v>20</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="3"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23">
+        <v>45</v>
+      </c>
+      <c r="I65" s="23">
+        <v>120</v>
+      </c>
+      <c r="J65" s="23">
+        <v>90</v>
+      </c>
+      <c r="K65" s="24"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="23"/>
+      <c r="AA65" s="23"/>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="23"/>
+      <c r="AD65" s="23"/>
+      <c r="AE65" s="21"/>
     </row>
     <row r="66" spans="1:31" ht="15" customHeight="1">
       <c r="A66" s="52"/>
       <c r="B66" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2">
+        <v>10</v>
+      </c>
       <c r="E66" s="2">
-        <v>20</v>
-      </c>
-      <c r="F66" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="F66" s="2">
+        <v>30</v>
+      </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -4887,122 +4917,112 @@
       <c r="AD66" s="2"/>
       <c r="AE66" s="3"/>
     </row>
-    <row r="67" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:31" ht="15" customHeight="1">
       <c r="A67" s="52"/>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2">
+        <v>60</v>
+      </c>
+      <c r="F67" s="2">
+        <v>20</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="1:31" ht="15" customHeight="1">
+      <c r="A68" s="52"/>
+      <c r="B68" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="23">
-        <v>50</v>
-      </c>
-      <c r="E67" s="23">
-        <v>35</v>
-      </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23">
-        <v>35</v>
-      </c>
-      <c r="H67" s="23">
-        <v>25</v>
-      </c>
-      <c r="I67" s="23">
-        <v>25</v>
-      </c>
-      <c r="J67" s="23">
-        <v>60</v>
-      </c>
-      <c r="K67" s="24"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="23"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="23"/>
-      <c r="W67" s="23"/>
-      <c r="X67" s="23"/>
-      <c r="Y67" s="24"/>
-      <c r="Z67" s="23"/>
-      <c r="AA67" s="23"/>
-      <c r="AB67" s="23"/>
-      <c r="AC67" s="23"/>
-      <c r="AD67" s="23"/>
-      <c r="AE67" s="21"/>
-    </row>
-    <row r="68" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="52"/>
-      <c r="B68" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="23">
-        <v>60</v>
-      </c>
-      <c r="E68" s="23">
-        <v>40</v>
-      </c>
-      <c r="F68" s="23">
-        <v>90</v>
-      </c>
-      <c r="G68" s="23">
-        <v>40</v>
-      </c>
-      <c r="H68" s="23">
-        <v>55</v>
-      </c>
-      <c r="I68" s="23">
-        <v>90</v>
-      </c>
-      <c r="J68" s="23">
-        <v>60</v>
-      </c>
-      <c r="K68" s="24"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="23"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="23"/>
-      <c r="W68" s="23"/>
-      <c r="X68" s="23"/>
-      <c r="Y68" s="24"/>
-      <c r="Z68" s="23"/>
-      <c r="AA68" s="23"/>
-      <c r="AB68" s="23"/>
-      <c r="AC68" s="23"/>
-      <c r="AD68" s="23"/>
-      <c r="AE68" s="21"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2">
+        <v>20</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="3"/>
     </row>
     <row r="69" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="52"/>
       <c r="B69" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="D69" s="23">
+        <v>50</v>
+      </c>
+      <c r="E69" s="23">
+        <v>35</v>
+      </c>
       <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
+      <c r="G69" s="23">
+        <v>35</v>
+      </c>
+      <c r="H69" s="23">
+        <v>25</v>
+      </c>
+      <c r="I69" s="23">
+        <v>25</v>
+      </c>
       <c r="J69" s="23">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K69" s="24"/>
       <c r="L69" s="23"/>
@@ -5029,29 +5049,31 @@
     <row r="70" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="52"/>
       <c r="B70" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" s="23">
-        <v>20</v>
-      </c>
-      <c r="E70" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="E70" s="23">
+        <v>40</v>
+      </c>
       <c r="F70" s="23">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G70" s="23">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H70" s="23">
+        <v>55</v>
+      </c>
+      <c r="I70" s="23">
+        <v>90</v>
+      </c>
+      <c r="J70" s="23">
         <v>60</v>
-      </c>
-      <c r="I70" s="23">
-        <v>60</v>
-      </c>
-      <c r="J70" s="23">
-        <v>90</v>
       </c>
       <c r="K70" s="24"/>
       <c r="L70" s="23"/>
@@ -5075,114 +5097,114 @@
       <c r="AD70" s="23"/>
       <c r="AE70" s="21"/>
     </row>
-    <row r="71" spans="1:31" ht="15" customHeight="1">
+    <row r="71" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="52"/>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D71" s="2">
-        <v>30</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2">
-        <v>30</v>
-      </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-      <c r="AB71" s="2"/>
-      <c r="AC71" s="2"/>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="3"/>
-    </row>
-    <row r="72" spans="1:31" ht="15.6" customHeight="1">
+      <c r="C71" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23">
+        <v>30</v>
+      </c>
+      <c r="K71" s="24"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="23"/>
+      <c r="AA71" s="23"/>
+      <c r="AB71" s="23"/>
+      <c r="AC71" s="23"/>
+      <c r="AD71" s="23"/>
+      <c r="AE71" s="21"/>
+    </row>
+    <row r="72" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="52"/>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2">
-        <v>180</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
-      <c r="AB72" s="2"/>
-      <c r="AC72" s="2"/>
-      <c r="AD72" s="2"/>
-      <c r="AE72" s="3"/>
+      <c r="C72" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="23">
+        <v>20</v>
+      </c>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23">
+        <v>30</v>
+      </c>
+      <c r="G72" s="23">
+        <v>10</v>
+      </c>
+      <c r="H72" s="23">
+        <v>60</v>
+      </c>
+      <c r="I72" s="23">
+        <v>60</v>
+      </c>
+      <c r="J72" s="23">
+        <v>90</v>
+      </c>
+      <c r="K72" s="24"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="23"/>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="23"/>
+      <c r="AD72" s="23"/>
+      <c r="AE72" s="21"/>
     </row>
     <row r="73" spans="1:31" ht="15" customHeight="1">
       <c r="A73" s="52"/>
       <c r="B73" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D73" s="2">
-        <v>100</v>
-      </c>
-      <c r="E73" s="2">
-        <v>100</v>
-      </c>
-      <c r="F73" s="2">
-        <v>30</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
       <c r="G73" s="2">
-        <v>60</v>
-      </c>
-      <c r="H73" s="2">
-        <v>100</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="1">
-        <v>80</v>
-      </c>
+      <c r="K73" s="1"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -5204,99 +5226,109 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="3"/>
     </row>
-    <row r="74" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="74" spans="1:31" ht="15.6" customHeight="1">
       <c r="A74" s="52"/>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2">
+        <v>180</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="3"/>
+    </row>
+    <row r="75" spans="1:31" ht="15" customHeight="1">
+      <c r="A75" s="52"/>
+      <c r="B75" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23">
+      <c r="D75" s="2">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2">
+        <v>100</v>
+      </c>
+      <c r="F75" s="2">
+        <v>30</v>
+      </c>
+      <c r="G75" s="2">
         <v>60</v>
       </c>
-      <c r="F74" s="23">
+      <c r="H75" s="2">
+        <v>100</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="1">
+        <v>80</v>
+      </c>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="3"/>
+    </row>
+    <row r="76" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="52"/>
+      <c r="B76" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23">
+        <v>60</v>
+      </c>
+      <c r="F76" s="23">
         <v>40</v>
       </c>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
-      <c r="V74" s="23"/>
-      <c r="W74" s="23"/>
-      <c r="X74" s="23"/>
-      <c r="Y74" s="24"/>
-      <c r="Z74" s="23"/>
-      <c r="AA74" s="23"/>
-      <c r="AB74" s="23"/>
-      <c r="AC74" s="23"/>
-      <c r="AD74" s="23"/>
-      <c r="AE74" s="21"/>
-    </row>
-    <row r="75" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="52"/>
-      <c r="B75" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23">
-        <v>30</v>
-      </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23"/>
-      <c r="W75" s="23"/>
-      <c r="X75" s="23"/>
-      <c r="Y75" s="24"/>
-      <c r="Z75" s="23"/>
-      <c r="AA75" s="23"/>
-      <c r="AB75" s="23"/>
-      <c r="AC75" s="23"/>
-      <c r="AD75" s="23"/>
-      <c r="AE75" s="21"/>
-    </row>
-    <row r="76" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A76" s="53"/>
-      <c r="B76" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" s="23">
-        <v>45</v>
-      </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
@@ -5323,132 +5355,112 @@
       <c r="AD76" s="23"/>
       <c r="AE76" s="21"/>
     </row>
-    <row r="77" spans="1:31">
-      <c r="A77" s="54">
+    <row r="77" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="52"/>
+      <c r="B77" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23">
+        <v>30</v>
+      </c>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="24"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="23"/>
+      <c r="AD77" s="23"/>
+      <c r="AE77" s="21"/>
+    </row>
+    <row r="78" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A78" s="53"/>
+      <c r="B78" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="23">
+        <v>45</v>
+      </c>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="23"/>
+      <c r="AA78" s="23"/>
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="23"/>
+      <c r="AD78" s="23"/>
+      <c r="AE78" s="21"/>
+    </row>
+    <row r="79" spans="1:31">
+      <c r="A79" s="54">
         <v>5</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="8" t="s">
+      <c r="B79" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D79" s="2">
         <v>45</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E79" s="2">
         <v>45</v>
       </c>
-      <c r="F77" s="2">
-        <v>30</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2">
+      <c r="F79" s="2">
+        <v>30</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2">
         <v>45</v>
       </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="1">
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="1">
         <v>45</v>
       </c>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
-      <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="3"/>
-    </row>
-    <row r="78" spans="1:31" ht="15.6" customHeight="1">
-      <c r="A78" s="55"/>
-      <c r="B78" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="2">
-        <v>20</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2">
-        <v>15</v>
-      </c>
-      <c r="G78" s="2">
-        <v>30</v>
-      </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2">
-        <v>15</v>
-      </c>
-      <c r="J78" s="2">
-        <v>15</v>
-      </c>
-      <c r="K78" s="1"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="3"/>
-    </row>
-    <row r="79" spans="1:31" ht="15.6" customHeight="1">
-      <c r="A79" s="55"/>
-      <c r="B79" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="2">
-        <v>30</v>
-      </c>
-      <c r="E79" s="2">
-        <v>30</v>
-      </c>
-      <c r="F79" s="2">
-        <v>60</v>
-      </c>
-      <c r="G79" s="2">
-        <v>45</v>
-      </c>
-      <c r="H79" s="2">
-        <v>70</v>
-      </c>
-      <c r="I79" s="2">
-        <v>90</v>
-      </c>
-      <c r="J79" s="2">
-        <v>60</v>
-      </c>
-      <c r="K79" s="1"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -5473,19 +5485,27 @@
     <row r="80" spans="1:31" ht="15.6" customHeight="1">
       <c r="A80" s="55"/>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="D80" s="2">
+        <v>20</v>
+      </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="F80" s="2">
+        <v>15</v>
+      </c>
+      <c r="G80" s="2">
+        <v>30</v>
+      </c>
       <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="I80" s="2">
+        <v>15</v>
+      </c>
       <c r="J80" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="2"/>
@@ -5509,114 +5529,128 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
+    <row r="81" spans="1:31" ht="15.6" customHeight="1">
       <c r="A81" s="55"/>
-      <c r="B81" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="23">
-        <v>30</v>
-      </c>
-      <c r="E81" s="23">
-        <v>30</v>
-      </c>
-      <c r="F81" s="23">
-        <v>30</v>
-      </c>
-      <c r="G81" s="23">
+      <c r="D81" s="2">
+        <v>30</v>
+      </c>
+      <c r="E81" s="2">
+        <v>30</v>
+      </c>
+      <c r="F81" s="2">
+        <v>60</v>
+      </c>
+      <c r="G81" s="2">
+        <v>45</v>
+      </c>
+      <c r="H81" s="2">
         <v>70</v>
       </c>
-      <c r="H81" s="23">
-        <v>30</v>
-      </c>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="23"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="23"/>
-      <c r="T81" s="23"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="23"/>
-      <c r="W81" s="23"/>
-      <c r="X81" s="23"/>
-      <c r="Y81" s="24"/>
-      <c r="Z81" s="23"/>
-      <c r="AA81" s="23"/>
-      <c r="AB81" s="23"/>
-      <c r="AC81" s="23"/>
-      <c r="AD81" s="23"/>
-      <c r="AE81" s="21"/>
-    </row>
-    <row r="82" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
+      <c r="I81" s="2">
+        <v>90</v>
+      </c>
+      <c r="J81" s="2">
+        <v>60</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="3"/>
+    </row>
+    <row r="82" spans="1:31" ht="15.6" customHeight="1">
       <c r="A82" s="55"/>
-      <c r="B82" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="23">
-        <v>30</v>
-      </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="23"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="24"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="23"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="23"/>
-      <c r="W82" s="23"/>
-      <c r="X82" s="23"/>
-      <c r="Y82" s="24"/>
-      <c r="Z82" s="23"/>
-      <c r="AA82" s="23"/>
-      <c r="AB82" s="23"/>
-      <c r="AC82" s="23"/>
-      <c r="AD82" s="23"/>
-      <c r="AE82" s="21"/>
+      <c r="B82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2">
+        <v>30</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="3"/>
     </row>
     <row r="83" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A83" s="55"/>
       <c r="B83" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D83" s="23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E83" s="23">
-        <v>10</v>
-      </c>
-      <c r="F83" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="F83" s="23">
+        <v>30</v>
+      </c>
       <c r="G83" s="23">
-        <v>50</v>
-      </c>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="24"/>
+        <v>70</v>
+      </c>
+      <c r="H83" s="23">
+        <v>30</v>
+      </c>
+      <c r="I83" s="23">
+        <v>60</v>
+      </c>
+      <c r="J83" s="23">
+        <v>60</v>
+      </c>
+      <c r="K83" s="24">
+        <v>30</v>
+      </c>
       <c r="L83" s="23"/>
       <c r="M83" s="23"/>
       <c r="N83" s="23"/>
@@ -5641,15 +5675,15 @@
     <row r="84" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A84" s="55"/>
       <c r="B84" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23">
-        <v>41</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D84" s="23">
+        <v>30</v>
+      </c>
+      <c r="E84" s="23"/>
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
       <c r="H84" s="23"/>
@@ -5680,17 +5714,21 @@
     <row r="85" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A85" s="55"/>
       <c r="B85" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C85" s="21" t="s">
         <v>77</v>
       </c>
       <c r="D85" s="23">
-        <v>20</v>
-      </c>
-      <c r="E85" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="E85" s="23">
+        <v>10</v>
+      </c>
       <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
+      <c r="G85" s="23">
+        <v>50</v>
+      </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23"/>
       <c r="J85" s="23"/>
@@ -5719,21 +5757,21 @@
     <row r="86" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A86" s="55"/>
       <c r="B86" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C86" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23">
-        <v>40</v>
-      </c>
+      <c r="E86" s="23">
+        <v>41</v>
+      </c>
+      <c r="F86" s="23"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="23">
-        <v>50</v>
-      </c>
-      <c r="I86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23">
+        <v>45</v>
+      </c>
       <c r="J86" s="23"/>
       <c r="K86" s="24"/>
       <c r="L86" s="23"/>
@@ -5757,132 +5795,122 @@
       <c r="AD86" s="23"/>
       <c r="AE86" s="21"/>
     </row>
-    <row r="87" spans="1:31" ht="15.6" customHeight="1">
+    <row r="87" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A87" s="55"/>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="2">
+      <c r="D87" s="23">
+        <v>20</v>
+      </c>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="23"/>
+      <c r="T87" s="23"/>
+      <c r="U87" s="23"/>
+      <c r="V87" s="23"/>
+      <c r="W87" s="23"/>
+      <c r="X87" s="23"/>
+      <c r="Y87" s="24"/>
+      <c r="Z87" s="23"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="23"/>
+      <c r="AD87" s="23"/>
+      <c r="AE87" s="21"/>
+    </row>
+    <row r="88" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A88" s="55"/>
+      <c r="B88" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23">
+        <v>40</v>
+      </c>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23">
+        <v>50</v>
+      </c>
+      <c r="I88" s="23">
+        <v>30</v>
+      </c>
+      <c r="J88" s="23">
         <v>60</v>
       </c>
-      <c r="E87" s="2">
-        <v>45</v>
-      </c>
-      <c r="F87" s="2">
-        <v>80</v>
-      </c>
-      <c r="G87" s="2">
-        <v>45</v>
-      </c>
-      <c r="H87" s="2">
-        <v>45</v>
-      </c>
-      <c r="I87" s="2">
-        <v>70</v>
-      </c>
-      <c r="J87" s="2">
-        <v>90</v>
-      </c>
-      <c r="K87" s="1">
-        <v>15</v>
-      </c>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="2"/>
-      <c r="AA87" s="2"/>
-      <c r="AB87" s="2"/>
-      <c r="AC87" s="2"/>
-      <c r="AD87" s="2"/>
-      <c r="AE87" s="3"/>
-    </row>
-    <row r="88" spans="1:31" ht="15.6" customHeight="1">
-      <c r="A88" s="55"/>
-      <c r="B88" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D88" s="2">
-        <v>20</v>
-      </c>
-      <c r="E88" s="2">
-        <v>15</v>
-      </c>
-      <c r="F88" s="2">
-        <v>15</v>
-      </c>
-      <c r="G88" s="2">
-        <v>20</v>
-      </c>
-      <c r="H88" s="2">
-        <v>20</v>
-      </c>
-      <c r="I88" s="2">
-        <v>15</v>
-      </c>
-      <c r="J88" s="2">
-        <v>15</v>
-      </c>
-      <c r="K88" s="1"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="2"/>
-      <c r="AA88" s="2"/>
-      <c r="AB88" s="2"/>
-      <c r="AC88" s="2"/>
-      <c r="AD88" s="2"/>
-      <c r="AE88" s="3"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="23"/>
+      <c r="Q88" s="23"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="23"/>
+      <c r="T88" s="23"/>
+      <c r="U88" s="23"/>
+      <c r="V88" s="23"/>
+      <c r="W88" s="23"/>
+      <c r="X88" s="23"/>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="23"/>
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="23"/>
+      <c r="AC88" s="23"/>
+      <c r="AD88" s="23"/>
+      <c r="AE88" s="21"/>
     </row>
     <row r="89" spans="1:31" ht="15.6" customHeight="1">
       <c r="A89" s="55"/>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2">
         <v>60</v>
       </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="E89" s="2">
+        <v>45</v>
+      </c>
+      <c r="F89" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" s="2">
+        <v>45</v>
+      </c>
       <c r="H89" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I89" s="2">
-        <v>60</v>
-      </c>
-      <c r="J89" s="2"/>
-      <c r="K89" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="J89" s="2">
+        <v>90</v>
+      </c>
+      <c r="K89" s="1">
+        <v>15</v>
+      </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -5906,61 +5934,114 @@
     </row>
     <row r="90" spans="1:31" ht="15.6" customHeight="1">
       <c r="A90" s="55"/>
-      <c r="B90" t="s">
-        <v>79</v>
+      <c r="B90" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90">
-        <v>50</v>
-      </c>
-      <c r="H90">
-        <v>50</v>
-      </c>
-      <c r="I90">
-        <v>110</v>
+        <v>82</v>
+      </c>
+      <c r="D90" s="2">
+        <v>20</v>
+      </c>
+      <c r="E90" s="2">
+        <v>15</v>
+      </c>
+      <c r="F90" s="2">
+        <v>15</v>
+      </c>
+      <c r="G90" s="2">
+        <v>20</v>
+      </c>
+      <c r="H90" s="2">
+        <v>20</v>
+      </c>
+      <c r="I90" s="2">
+        <v>15</v>
+      </c>
+      <c r="J90" s="2">
+        <v>15</v>
       </c>
       <c r="K90" s="1"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
       <c r="R90" s="1"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
       <c r="Y90" s="1"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
       <c r="AE90" s="3"/>
     </row>
     <row r="91" spans="1:31" ht="15.6" customHeight="1">
       <c r="A91" s="55"/>
-      <c r="B91" t="s">
-        <v>79</v>
+      <c r="B91" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91">
-        <v>30</v>
-      </c>
-      <c r="G91">
-        <v>10</v>
-      </c>
-      <c r="H91">
-        <v>25</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D91" s="2">
+        <v>60</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2">
+        <v>60</v>
+      </c>
+      <c r="I91" s="2">
+        <v>60</v>
+      </c>
+      <c r="J91" s="2"/>
       <c r="K91" s="1"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
       <c r="R91" s="1"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
       <c r="Y91" s="1"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
       <c r="AE91" s="3"/>
     </row>
     <row r="92" spans="1:31" ht="15.6" customHeight="1">
       <c r="A92" s="55"/>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="E92">
         <v>50</v>
       </c>
+      <c r="H92">
+        <v>50</v>
+      </c>
       <c r="I92">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K92" s="1"/>
       <c r="R92" s="1"/>
@@ -5970,326 +6051,264 @@
     <row r="93" spans="1:31" ht="15.6" customHeight="1">
       <c r="A93" s="55"/>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="E93">
+        <v>30</v>
       </c>
       <c r="G93">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="H93">
+        <v>25</v>
       </c>
       <c r="K93" s="1"/>
       <c r="R93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="AE93" s="3"/>
     </row>
-    <row r="94" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
+    <row r="94" spans="1:31" ht="15.6" customHeight="1">
       <c r="A94" s="55"/>
-      <c r="B94" s="22" t="s">
+      <c r="B94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C94" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F94" s="22">
-        <v>30</v>
-      </c>
-      <c r="K94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="Y94" s="24"/>
-      <c r="AE94" s="21"/>
-    </row>
-    <row r="95" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
+      <c r="F94">
+        <v>50</v>
+      </c>
+      <c r="I94">
+        <v>50</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="AE94" s="3"/>
+    </row>
+    <row r="95" spans="1:31" ht="15.6" customHeight="1">
       <c r="A95" s="55"/>
-      <c r="B95" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C95" s="21" t="s">
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23">
-        <v>60</v>
-      </c>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="23"/>
-      <c r="Q95" s="23"/>
-      <c r="R95" s="24"/>
-      <c r="S95" s="23"/>
-      <c r="T95" s="23"/>
-      <c r="U95" s="23"/>
-      <c r="V95" s="23"/>
-      <c r="W95" s="23"/>
-      <c r="X95" s="23"/>
-      <c r="Y95" s="24"/>
-      <c r="Z95" s="23"/>
-      <c r="AA95" s="23"/>
-      <c r="AB95" s="23"/>
-      <c r="AC95" s="23"/>
-      <c r="AD95" s="23"/>
-      <c r="AE95" s="21"/>
+      <c r="G95">
+        <v>50</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="AE95" s="3"/>
     </row>
     <row r="96" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A96" s="55"/>
-      <c r="B96" s="23" t="s">
-        <v>84</v>
+      <c r="B96" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="C96" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F96" s="22">
+        <v>30</v>
+      </c>
+      <c r="I96" s="22">
+        <v>30</v>
+      </c>
+      <c r="K96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="Y96" s="24"/>
+      <c r="AE96" s="21"/>
+    </row>
+    <row r="97" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A97" s="55"/>
+      <c r="B97" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23">
+      <c r="C97" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23">
         <v>60</v>
       </c>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="23"/>
-      <c r="O96" s="23"/>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="23"/>
-      <c r="R96" s="24"/>
-      <c r="S96" s="23"/>
-      <c r="T96" s="23"/>
-      <c r="U96" s="23"/>
-      <c r="V96" s="23"/>
-      <c r="W96" s="23"/>
-      <c r="X96" s="23"/>
-      <c r="Y96" s="24"/>
-      <c r="Z96" s="23"/>
-      <c r="AA96" s="23"/>
-      <c r="AB96" s="23"/>
-      <c r="AC96" s="23"/>
-      <c r="AD96" s="23"/>
-      <c r="AE96" s="21"/>
-    </row>
-    <row r="97" spans="1:31" ht="15.6" customHeight="1">
-      <c r="A97" s="55"/>
-      <c r="B97" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="H97" s="23"/>
+      <c r="I97" s="23">
+        <v>90</v>
+      </c>
+      <c r="J97" s="23">
+        <v>60</v>
+      </c>
+      <c r="K97" s="24"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="23"/>
+      <c r="T97" s="23"/>
+      <c r="U97" s="23"/>
+      <c r="V97" s="23"/>
+      <c r="W97" s="23"/>
+      <c r="X97" s="23"/>
+      <c r="Y97" s="24"/>
+      <c r="Z97" s="23"/>
+      <c r="AA97" s="23"/>
+      <c r="AB97" s="23"/>
+      <c r="AC97" s="23"/>
+      <c r="AD97" s="23"/>
+      <c r="AE97" s="21"/>
+    </row>
+    <row r="98" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A98" s="55"/>
+      <c r="B98" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23">
+        <v>60</v>
+      </c>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23">
+        <v>60</v>
+      </c>
+      <c r="J98" s="23"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="24"/>
+      <c r="S98" s="23"/>
+      <c r="T98" s="23"/>
+      <c r="U98" s="23"/>
+      <c r="V98" s="23"/>
+      <c r="W98" s="23"/>
+      <c r="X98" s="23"/>
+      <c r="Y98" s="24"/>
+      <c r="Z98" s="23"/>
+      <c r="AA98" s="23"/>
+      <c r="AB98" s="23"/>
+      <c r="AC98" s="23"/>
+      <c r="AD98" s="23"/>
+      <c r="AE98" s="21"/>
+    </row>
+    <row r="99" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A99" s="55"/>
+      <c r="B99" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23">
+        <v>30</v>
+      </c>
+      <c r="K99" s="24"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="24"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="23"/>
+      <c r="U99" s="23"/>
+      <c r="V99" s="23"/>
+      <c r="W99" s="23"/>
+      <c r="X99" s="23"/>
+      <c r="Y99" s="24"/>
+      <c r="Z99" s="23"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="23"/>
+      <c r="AC99" s="23"/>
+      <c r="AD99" s="23"/>
+      <c r="AE99" s="21"/>
+    </row>
+    <row r="100" spans="1:31" s="22" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A100" s="55"/>
+      <c r="B100" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23">
+        <v>30</v>
+      </c>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="23"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="23"/>
+      <c r="T100" s="23"/>
+      <c r="U100" s="23"/>
+      <c r="V100" s="23"/>
+      <c r="W100" s="23"/>
+      <c r="X100" s="23"/>
+      <c r="Y100" s="24"/>
+      <c r="Z100" s="23"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+      <c r="AC100" s="23"/>
+      <c r="AD100" s="23"/>
+      <c r="AE100" s="21"/>
+    </row>
+    <row r="101" spans="1:31" ht="15.6" customHeight="1">
+      <c r="A101" s="55"/>
+      <c r="B101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="2">
-        <v>30</v>
-      </c>
-      <c r="E97" s="2">
-        <v>30</v>
-      </c>
-      <c r="F97" s="2">
-        <v>30</v>
-      </c>
-      <c r="G97" s="2">
-        <v>30</v>
-      </c>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="2"/>
-      <c r="AA97" s="2"/>
-      <c r="AB97" s="2"/>
-      <c r="AC97" s="2"/>
-      <c r="AD97" s="2"/>
-      <c r="AE97" s="3"/>
-    </row>
-    <row r="98" spans="1:31" ht="15.6" customHeight="1">
-      <c r="A98" s="56"/>
-      <c r="B98" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D98" s="2">
-        <v>60</v>
-      </c>
-      <c r="E98" s="2">
-        <v>90</v>
-      </c>
-      <c r="F98" s="2">
-        <v>60</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="2"/>
-      <c r="AA98" s="2"/>
-      <c r="AB98" s="2"/>
-      <c r="AC98" s="2"/>
-      <c r="AD98" s="2"/>
-      <c r="AE98" s="3"/>
-    </row>
-    <row r="99" spans="1:31">
-      <c r="A99" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" s="2">
-        <v>45</v>
-      </c>
-      <c r="E99" s="2">
-        <v>5</v>
-      </c>
-      <c r="F99" s="2">
-        <v>20</v>
-      </c>
-      <c r="G99" s="2">
-        <v>30</v>
-      </c>
-      <c r="H99" s="2">
-        <v>20</v>
-      </c>
-      <c r="I99" s="2">
-        <v>20</v>
-      </c>
-      <c r="J99" s="2">
-        <v>60</v>
-      </c>
-      <c r="K99" s="1"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="2"/>
-      <c r="AA99" s="2"/>
-      <c r="AB99" s="2"/>
-      <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
-      <c r="AE99" s="3"/>
-    </row>
-    <row r="100" spans="1:31">
-      <c r="A100" s="46"/>
-      <c r="B100" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E100" s="2">
-        <v>45</v>
-      </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K100" s="1"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="2"/>
-      <c r="AA100" s="2"/>
-      <c r="AB100" s="2"/>
-      <c r="AC100" s="2"/>
-      <c r="AD100" s="2"/>
-      <c r="AE100" s="3"/>
-    </row>
-    <row r="101" spans="1:31">
-      <c r="A101" s="46"/>
-      <c r="B101" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>39</v>
+      <c r="D101" s="2">
+        <v>30</v>
       </c>
       <c r="E101" s="2">
-        <v>20</v>
-      </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F101" s="2">
+        <v>30</v>
+      </c>
+      <c r="G101" s="2">
+        <v>30</v>
+      </c>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
       <c r="K101" s="1"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -6312,76 +6331,117 @@
       <c r="AD101" s="2"/>
       <c r="AE101" s="3"/>
     </row>
-    <row r="102" spans="1:31">
-      <c r="A102" s="46"/>
-      <c r="B102" t="s">
+    <row r="102" spans="1:31" ht="15.6" customHeight="1">
+      <c r="A102" s="56"/>
+      <c r="B102" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D102" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102">
-        <v>15</v>
-      </c>
-      <c r="F102">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s">
-        <v>39</v>
-      </c>
-      <c r="I102">
-        <v>120</v>
-      </c>
-      <c r="J102" t="s">
-        <v>39</v>
-      </c>
+      <c r="D102" s="2">
+        <v>60</v>
+      </c>
+      <c r="E102" s="2">
+        <v>90</v>
+      </c>
+      <c r="F102" s="2">
+        <v>60</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
       <c r="K102" s="1"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
       <c r="R102" s="1"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
       <c r="Y102" s="1"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
       <c r="AE102" s="3"/>
     </row>
     <row r="103" spans="1:31">
-      <c r="A103" s="46"/>
-      <c r="B103" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H103" t="s">
-        <v>39</v>
-      </c>
-      <c r="I103" t="s">
-        <v>39</v>
-      </c>
-      <c r="J103">
-        <v>120</v>
+      <c r="A103" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45</v>
+      </c>
+      <c r="E103" s="2">
+        <v>5</v>
+      </c>
+      <c r="F103" s="2">
+        <v>20</v>
+      </c>
+      <c r="G103" s="2">
+        <v>30</v>
+      </c>
+      <c r="H103" s="2">
+        <v>20</v>
+      </c>
+      <c r="I103" s="2">
+        <v>20</v>
+      </c>
+      <c r="J103" s="2">
+        <v>60</v>
       </c>
       <c r="K103" s="1"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
       <c r="R103" s="1"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
       <c r="Y103" s="1"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
       <c r="AE103" s="3"/>
     </row>
     <row r="104" spans="1:31">
       <c r="A104" s="46"/>
       <c r="B104" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" s="2">
-        <v>40</v>
-      </c>
-      <c r="E104" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="E104" s="2">
+        <v>45</v>
+      </c>
+      <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
         <v>39</v>
@@ -6416,205 +6476,170 @@
     </row>
     <row r="105" spans="1:31">
       <c r="A105" s="46"/>
-      <c r="B105" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="32">
-        <v>36</v>
-      </c>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="34"/>
-      <c r="L105" s="32"/>
-      <c r="M105" s="32"/>
-      <c r="N105" s="32"/>
-      <c r="O105" s="32"/>
-      <c r="P105" s="32"/>
-      <c r="Q105" s="32"/>
-      <c r="R105" s="34"/>
-      <c r="S105" s="32"/>
-      <c r="T105" s="32"/>
-      <c r="U105" s="32"/>
-      <c r="V105" s="32"/>
-      <c r="W105" s="32"/>
-      <c r="X105" s="32"/>
-      <c r="Y105" s="34"/>
-      <c r="Z105" s="32"/>
-      <c r="AA105" s="32"/>
-      <c r="AB105" s="32"/>
-      <c r="AC105" s="32"/>
-      <c r="AD105" s="32"/>
-      <c r="AE105" s="33"/>
+      <c r="B105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="2">
+        <v>20</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" s="1"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+      <c r="AC105" s="2"/>
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="3"/>
     </row>
     <row r="106" spans="1:31">
       <c r="A106" s="46"/>
-      <c r="B106" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D106" s="32">
-        <v>30</v>
-      </c>
-      <c r="E106" s="32">
-        <v>60</v>
-      </c>
-      <c r="F106" s="32">
-        <v>60</v>
-      </c>
-      <c r="G106" s="32">
-        <v>100</v>
-      </c>
-      <c r="H106" s="32">
-        <v>60</v>
-      </c>
-      <c r="I106" s="32">
-        <v>60</v>
-      </c>
-      <c r="J106" s="32">
-        <v>60</v>
-      </c>
-      <c r="K106" s="34"/>
-      <c r="L106" s="32"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="32"/>
-      <c r="R106" s="34"/>
-      <c r="S106" s="32"/>
-      <c r="T106" s="32"/>
-      <c r="U106" s="32"/>
-      <c r="V106" s="32"/>
-      <c r="W106" s="32"/>
-      <c r="X106" s="32"/>
-      <c r="Y106" s="34"/>
-      <c r="Z106" s="32"/>
-      <c r="AA106" s="32"/>
-      <c r="AB106" s="32"/>
-      <c r="AC106" s="32"/>
-      <c r="AD106" s="32"/>
-      <c r="AE106" s="33"/>
+      <c r="B106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D106" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106">
+        <v>15</v>
+      </c>
+      <c r="F106">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s">
+        <v>39</v>
+      </c>
+      <c r="I106">
+        <v>120</v>
+      </c>
+      <c r="J106" t="s">
+        <v>39</v>
+      </c>
+      <c r="K106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="AE106" s="3"/>
     </row>
     <row r="107" spans="1:31">
       <c r="A107" s="46"/>
-      <c r="B107" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32">
-        <v>35</v>
-      </c>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32">
-        <v>45</v>
-      </c>
-      <c r="J107" s="32">
-        <v>45</v>
-      </c>
-      <c r="K107" s="34"/>
-      <c r="L107" s="32"/>
-      <c r="M107" s="32"/>
-      <c r="N107" s="32"/>
-      <c r="O107" s="32"/>
-      <c r="P107" s="32"/>
-      <c r="Q107" s="32"/>
-      <c r="R107" s="34"/>
-      <c r="S107" s="32"/>
-      <c r="T107" s="32"/>
-      <c r="U107" s="32"/>
-      <c r="V107" s="32"/>
-      <c r="W107" s="32"/>
-      <c r="X107" s="32"/>
-      <c r="Y107" s="34"/>
-      <c r="Z107" s="32"/>
-      <c r="AA107" s="32"/>
-      <c r="AB107" s="32"/>
-      <c r="AC107" s="32"/>
-      <c r="AD107" s="32"/>
-      <c r="AE107" s="33"/>
+      <c r="B107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H107" t="s">
+        <v>39</v>
+      </c>
+      <c r="I107" t="s">
+        <v>39</v>
+      </c>
+      <c r="J107">
+        <v>120</v>
+      </c>
+      <c r="K107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="AE107" s="3"/>
     </row>
     <row r="108" spans="1:31">
       <c r="A108" s="46"/>
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C108" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32">
-        <v>29</v>
-      </c>
-      <c r="I108" s="32"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="34"/>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="34"/>
-      <c r="S108" s="32"/>
-      <c r="T108" s="32"/>
-      <c r="U108" s="32"/>
-      <c r="V108" s="32"/>
-      <c r="W108" s="32"/>
-      <c r="X108" s="32"/>
-      <c r="Y108" s="34"/>
-      <c r="Z108" s="32"/>
-      <c r="AA108" s="32"/>
-      <c r="AB108" s="32"/>
-      <c r="AC108" s="32"/>
-      <c r="AD108" s="32"/>
-      <c r="AE108" s="33"/>
+      <c r="C108" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" s="2">
+        <v>40</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="3"/>
     </row>
     <row r="109" spans="1:31">
       <c r="A109" s="46"/>
       <c r="B109" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C109" s="33" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="D109" s="32">
-        <v>10</v>
-      </c>
-      <c r="E109" s="32">
-        <v>10</v>
-      </c>
-      <c r="F109" s="32">
-        <v>25</v>
-      </c>
-      <c r="G109" s="32">
-        <v>5</v>
-      </c>
-      <c r="H109" s="32">
-        <v>15</v>
-      </c>
-      <c r="I109" s="32">
-        <v>15</v>
-      </c>
-      <c r="J109" s="32">
-        <v>15</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
       <c r="K109" s="34"/>
       <c r="L109" s="32"/>
       <c r="M109" s="32"/>
@@ -6639,205 +6664,211 @@
     </row>
     <row r="110" spans="1:31">
       <c r="A110" s="46"/>
-      <c r="B110" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2">
-        <v>25</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2">
-        <v>32</v>
-      </c>
-      <c r="G110" s="2">
+      <c r="B110" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D110" s="32">
+        <v>30</v>
+      </c>
+      <c r="E110" s="32">
         <v>60</v>
       </c>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2">
-        <v>77</v>
-      </c>
-      <c r="K110" s="1"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="W110" s="2"/>
-      <c r="X110" s="2"/>
-      <c r="Y110" s="1"/>
-      <c r="Z110" s="2"/>
-      <c r="AA110" s="2"/>
-      <c r="AB110" s="2"/>
-      <c r="AC110" s="2"/>
-      <c r="AD110" s="2"/>
-      <c r="AE110" s="3"/>
+      <c r="F110" s="32">
+        <v>60</v>
+      </c>
+      <c r="G110" s="32">
+        <v>100</v>
+      </c>
+      <c r="H110" s="32">
+        <v>60</v>
+      </c>
+      <c r="I110" s="32">
+        <v>60</v>
+      </c>
+      <c r="J110" s="32">
+        <v>60</v>
+      </c>
+      <c r="K110" s="34"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
+      <c r="P110" s="32"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="34"/>
+      <c r="S110" s="32"/>
+      <c r="T110" s="32"/>
+      <c r="U110" s="32"/>
+      <c r="V110" s="32"/>
+      <c r="W110" s="32"/>
+      <c r="X110" s="32"/>
+      <c r="Y110" s="34"/>
+      <c r="Z110" s="32"/>
+      <c r="AA110" s="32"/>
+      <c r="AB110" s="32"/>
+      <c r="AC110" s="32"/>
+      <c r="AD110" s="32"/>
+      <c r="AE110" s="33"/>
     </row>
     <row r="111" spans="1:31">
       <c r="A111" s="46"/>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="2">
-        <v>50</v>
-      </c>
-      <c r="E111" s="2">
-        <v>110</v>
-      </c>
-      <c r="F111" s="2">
-        <v>85</v>
-      </c>
-      <c r="G111" s="2">
-        <v>50</v>
-      </c>
-      <c r="H111" s="2">
-        <v>90</v>
-      </c>
-      <c r="I111" s="2">
-        <v>95</v>
-      </c>
-      <c r="J111" s="2">
-        <v>85</v>
-      </c>
-      <c r="K111" s="1">
-        <v>40</v>
-      </c>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
-      <c r="V111" s="2"/>
-      <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="1"/>
-      <c r="Z111" s="2"/>
-      <c r="AA111" s="2"/>
-      <c r="AB111" s="2"/>
-      <c r="AC111" s="2"/>
-      <c r="AD111" s="2"/>
-      <c r="AE111" s="3"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32">
+        <v>35</v>
+      </c>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32">
+        <v>45</v>
+      </c>
+      <c r="J111" s="32">
+        <v>45</v>
+      </c>
+      <c r="K111" s="34"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="32"/>
+      <c r="P111" s="32"/>
+      <c r="Q111" s="32"/>
+      <c r="R111" s="34"/>
+      <c r="S111" s="32"/>
+      <c r="T111" s="32"/>
+      <c r="U111" s="32"/>
+      <c r="V111" s="32"/>
+      <c r="W111" s="32"/>
+      <c r="X111" s="32"/>
+      <c r="Y111" s="34"/>
+      <c r="Z111" s="32"/>
+      <c r="AA111" s="32"/>
+      <c r="AB111" s="32"/>
+      <c r="AC111" s="32"/>
+      <c r="AD111" s="32"/>
+      <c r="AE111" s="33"/>
     </row>
     <row r="112" spans="1:31">
       <c r="A112" s="46"/>
-      <c r="B112" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2">
-        <v>60</v>
-      </c>
-      <c r="F112" s="2">
-        <v>15</v>
-      </c>
-      <c r="G112" s="2">
-        <v>15</v>
-      </c>
-      <c r="H112" s="2">
-        <v>60</v>
-      </c>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="1">
-        <v>15</v>
-      </c>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
-      <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="1"/>
-      <c r="Z112" s="2"/>
-      <c r="AA112" s="2"/>
-      <c r="AB112" s="2"/>
-      <c r="AC112" s="2"/>
-      <c r="AD112" s="2"/>
-      <c r="AE112" s="3"/>
+      <c r="B112" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32">
+        <v>29</v>
+      </c>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="34"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="32"/>
+      <c r="P112" s="32"/>
+      <c r="Q112" s="32"/>
+      <c r="R112" s="34"/>
+      <c r="S112" s="32"/>
+      <c r="T112" s="32"/>
+      <c r="U112" s="32"/>
+      <c r="V112" s="32"/>
+      <c r="W112" s="32"/>
+      <c r="X112" s="32"/>
+      <c r="Y112" s="34"/>
+      <c r="Z112" s="32"/>
+      <c r="AA112" s="32"/>
+      <c r="AB112" s="32"/>
+      <c r="AC112" s="32"/>
+      <c r="AD112" s="32"/>
+      <c r="AE112" s="33"/>
     </row>
     <row r="113" spans="1:31">
       <c r="A113" s="46"/>
-      <c r="B113" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2">
+      <c r="B113" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D113" s="32">
         <v>10</v>
       </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="1"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
-      <c r="V113" s="2"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="1"/>
-      <c r="Z113" s="2"/>
-      <c r="AA113" s="2"/>
-      <c r="AB113" s="2"/>
-      <c r="AC113" s="2"/>
-      <c r="AD113" s="2"/>
-      <c r="AE113" s="3"/>
+      <c r="E113" s="32">
+        <v>10</v>
+      </c>
+      <c r="F113" s="32">
+        <v>25</v>
+      </c>
+      <c r="G113" s="32">
+        <v>5</v>
+      </c>
+      <c r="H113" s="32">
+        <v>15</v>
+      </c>
+      <c r="I113" s="32">
+        <v>15</v>
+      </c>
+      <c r="J113" s="32">
+        <v>15</v>
+      </c>
+      <c r="K113" s="34"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="34"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="32"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
+      <c r="X113" s="32"/>
+      <c r="Y113" s="34"/>
+      <c r="Z113" s="32"/>
+      <c r="AA113" s="32"/>
+      <c r="AB113" s="32"/>
+      <c r="AC113" s="32"/>
+      <c r="AD113" s="32"/>
+      <c r="AE113" s="33"/>
     </row>
     <row r="114" spans="1:31">
       <c r="A114" s="46"/>
       <c r="B114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2">
-        <v>30</v>
-      </c>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D114" s="2">
+        <v>25</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2">
+        <v>32</v>
+      </c>
+      <c r="G114" s="2">
+        <v>60</v>
+      </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
+      <c r="J114" s="2">
+        <v>77</v>
+      </c>
       <c r="K114" s="1"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -6863,21 +6894,35 @@
     <row r="115" spans="1:31">
       <c r="A115" s="46"/>
       <c r="B115" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D115" s="2">
+        <v>50</v>
+      </c>
+      <c r="E115" s="2">
+        <v>110</v>
+      </c>
+      <c r="F115" s="2">
+        <v>85</v>
+      </c>
+      <c r="G115" s="2">
+        <v>50</v>
+      </c>
+      <c r="H115" s="2">
+        <v>90</v>
+      </c>
       <c r="I115" s="2">
-        <v>5</v>
-      </c>
-      <c r="J115" s="2"/>
-      <c r="K115" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="J115" s="2">
+        <v>85</v>
+      </c>
+      <c r="K115" s="1">
+        <v>60</v>
+      </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -6902,21 +6947,29 @@
     <row r="116" spans="1:31">
       <c r="A116" s="46"/>
       <c r="B116" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="E116" s="2">
+        <v>60</v>
+      </c>
       <c r="F116" s="2">
+        <v>15</v>
+      </c>
+      <c r="G116" s="2">
+        <v>15</v>
+      </c>
+      <c r="H116" s="2">
         <v>60</v>
       </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="K116" s="1"/>
+      <c r="K116" s="1">
+        <v>15</v>
+      </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -6940,174 +6993,138 @@
     </row>
     <row r="117" spans="1:31">
       <c r="A117" s="46"/>
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="32">
-        <v>70</v>
-      </c>
-      <c r="E117" s="32">
-        <v>80</v>
-      </c>
-      <c r="F117" s="32">
-        <v>20</v>
-      </c>
-      <c r="G117" s="32">
-        <v>80</v>
-      </c>
-      <c r="H117" s="32">
-        <v>20</v>
-      </c>
-      <c r="I117" s="32">
-        <v>80</v>
-      </c>
-      <c r="J117" s="32">
-        <v>286</v>
-      </c>
-      <c r="K117" s="34"/>
-      <c r="L117" s="32"/>
-      <c r="M117" s="32"/>
-      <c r="N117" s="32"/>
-      <c r="O117" s="32"/>
-      <c r="P117" s="32"/>
-      <c r="Q117" s="32"/>
-      <c r="R117" s="34"/>
-      <c r="S117" s="32"/>
-      <c r="T117" s="32"/>
-      <c r="U117" s="32"/>
-      <c r="V117" s="32"/>
-      <c r="W117" s="32"/>
-      <c r="X117" s="32"/>
-      <c r="Y117" s="34"/>
-      <c r="Z117" s="32"/>
-      <c r="AA117" s="32"/>
-      <c r="AB117" s="32"/>
-      <c r="AC117" s="32"/>
-      <c r="AD117" s="32"/>
-      <c r="AE117" s="33"/>
+      <c r="C117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2">
+        <v>10</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="3"/>
     </row>
     <row r="118" spans="1:31">
       <c r="A118" s="46"/>
-      <c r="B118" s="32" t="s">
+      <c r="B118" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C118" s="33" t="s">
+      <c r="C118" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="32">
-        <v>20</v>
-      </c>
-      <c r="E118" s="32">
-        <v>20</v>
-      </c>
-      <c r="F118" s="32">
-        <v>20</v>
-      </c>
-      <c r="G118" s="32">
-        <v>20</v>
-      </c>
-      <c r="H118" s="32">
-        <v>15</v>
-      </c>
-      <c r="I118" s="32">
-        <v>60</v>
-      </c>
-      <c r="J118" s="32">
-        <v>20</v>
-      </c>
-      <c r="K118" s="34"/>
-      <c r="L118" s="32"/>
-      <c r="M118" s="32"/>
-      <c r="N118" s="32"/>
-      <c r="O118" s="32"/>
-      <c r="P118" s="32"/>
-      <c r="Q118" s="32"/>
-      <c r="R118" s="34"/>
-      <c r="S118" s="32"/>
-      <c r="T118" s="32"/>
-      <c r="U118" s="32"/>
-      <c r="V118" s="32"/>
-      <c r="W118" s="32"/>
-      <c r="X118" s="32"/>
-      <c r="Y118" s="34"/>
-      <c r="Z118" s="32"/>
-      <c r="AA118" s="32"/>
-      <c r="AB118" s="32"/>
-      <c r="AC118" s="32"/>
-      <c r="AD118" s="32"/>
-      <c r="AE118" s="33"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2">
+        <v>30</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
+      <c r="AB118" s="2"/>
+      <c r="AC118" s="2"/>
+      <c r="AD118" s="2"/>
+      <c r="AE118" s="3"/>
     </row>
     <row r="119" spans="1:31">
       <c r="A119" s="46"/>
-      <c r="B119" s="32" t="s">
+      <c r="B119" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C119" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32">
-        <v>60</v>
-      </c>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32">
-        <v>45</v>
-      </c>
-      <c r="I119" s="32"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="34"/>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="32"/>
-      <c r="O119" s="32"/>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="34"/>
-      <c r="S119" s="32"/>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
-      <c r="W119" s="32"/>
-      <c r="X119" s="32"/>
-      <c r="Y119" s="34"/>
-      <c r="Z119" s="32"/>
-      <c r="AA119" s="32"/>
-      <c r="AB119" s="32"/>
-      <c r="AC119" s="32"/>
-      <c r="AD119" s="32"/>
-      <c r="AE119" s="33"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2">
+        <v>5</v>
+      </c>
+      <c r="J119" s="2"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
+      <c r="AB119" s="2"/>
+      <c r="AC119" s="2"/>
+      <c r="AD119" s="2"/>
+      <c r="AE119" s="3"/>
     </row>
     <row r="120" spans="1:31">
       <c r="A120" s="46"/>
       <c r="B120" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="2">
-        <v>40</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2">
-        <v>50</v>
-      </c>
-      <c r="G120" s="2">
         <v>60</v>
       </c>
-      <c r="H120" s="12">
-        <v>40</v>
-      </c>
-      <c r="I120" s="12">
-        <v>230</v>
-      </c>
-      <c r="J120" s="12">
-        <v>60</v>
-      </c>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
       <c r="K120" s="1"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -7132,194 +7149,386 @@
     </row>
     <row r="121" spans="1:31">
       <c r="A121" s="46"/>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2">
-        <v>50</v>
-      </c>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="1"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2"/>
-      <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
-      <c r="Y121" s="1"/>
-      <c r="Z121" s="2"/>
-      <c r="AA121" s="2"/>
-      <c r="AB121" s="2"/>
-      <c r="AC121" s="2"/>
-      <c r="AD121" s="2"/>
-      <c r="AE121" s="3"/>
+      <c r="C121" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="32">
+        <v>70</v>
+      </c>
+      <c r="E121" s="32">
+        <v>80</v>
+      </c>
+      <c r="F121" s="32">
+        <v>20</v>
+      </c>
+      <c r="G121" s="32">
+        <v>80</v>
+      </c>
+      <c r="H121" s="32">
+        <v>20</v>
+      </c>
+      <c r="I121" s="32">
+        <v>80</v>
+      </c>
+      <c r="J121" s="32">
+        <v>286</v>
+      </c>
+      <c r="K121" s="34"/>
+      <c r="L121" s="32"/>
+      <c r="M121" s="32"/>
+      <c r="N121" s="32"/>
+      <c r="O121" s="32"/>
+      <c r="P121" s="32"/>
+      <c r="Q121" s="32"/>
+      <c r="R121" s="34"/>
+      <c r="S121" s="32"/>
+      <c r="T121" s="32"/>
+      <c r="U121" s="32"/>
+      <c r="V121" s="32"/>
+      <c r="W121" s="32"/>
+      <c r="X121" s="32"/>
+      <c r="Y121" s="34"/>
+      <c r="Z121" s="32"/>
+      <c r="AA121" s="32"/>
+      <c r="AB121" s="32"/>
+      <c r="AC121" s="32"/>
+      <c r="AD121" s="32"/>
+      <c r="AE121" s="33"/>
     </row>
     <row r="122" spans="1:31">
       <c r="A122" s="46"/>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D122" s="2">
-        <v>10</v>
-      </c>
-      <c r="E122" s="2">
-        <v>40</v>
-      </c>
-      <c r="F122" s="2">
-        <v>30</v>
-      </c>
-      <c r="G122" s="12">
-        <v>10</v>
-      </c>
-      <c r="H122" s="12">
-        <v>10</v>
-      </c>
-      <c r="I122" s="12">
-        <v>10</v>
-      </c>
-      <c r="J122" s="12">
-        <v>30</v>
-      </c>
-      <c r="K122" s="1"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="2"/>
-      <c r="T122" s="2"/>
-      <c r="U122" s="2"/>
-      <c r="V122" s="2"/>
-      <c r="W122" s="2"/>
-      <c r="X122" s="2"/>
-      <c r="Y122" s="1"/>
-      <c r="Z122" s="2"/>
-      <c r="AA122" s="2"/>
-      <c r="AB122" s="2"/>
-      <c r="AC122" s="2"/>
-      <c r="AD122" s="2"/>
-      <c r="AE122" s="3"/>
+      <c r="C122" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="32">
+        <v>20</v>
+      </c>
+      <c r="E122" s="32">
+        <v>20</v>
+      </c>
+      <c r="F122" s="32">
+        <v>20</v>
+      </c>
+      <c r="G122" s="32">
+        <v>20</v>
+      </c>
+      <c r="H122" s="32">
+        <v>15</v>
+      </c>
+      <c r="I122" s="32">
+        <v>60</v>
+      </c>
+      <c r="J122" s="32">
+        <v>20</v>
+      </c>
+      <c r="K122" s="34"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="32"/>
+      <c r="O122" s="32"/>
+      <c r="P122" s="32"/>
+      <c r="Q122" s="32"/>
+      <c r="R122" s="34"/>
+      <c r="S122" s="32"/>
+      <c r="T122" s="32"/>
+      <c r="U122" s="32"/>
+      <c r="V122" s="32"/>
+      <c r="W122" s="32"/>
+      <c r="X122" s="32"/>
+      <c r="Y122" s="34"/>
+      <c r="Z122" s="32"/>
+      <c r="AA122" s="32"/>
+      <c r="AB122" s="32"/>
+      <c r="AC122" s="32"/>
+      <c r="AD122" s="32"/>
+      <c r="AE122" s="33"/>
     </row>
     <row r="123" spans="1:31">
       <c r="A123" s="46"/>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32">
+        <v>60</v>
+      </c>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32">
+        <v>45</v>
+      </c>
+      <c r="I123" s="32"/>
+      <c r="J123" s="32"/>
+      <c r="K123" s="34"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="32"/>
+      <c r="O123" s="32"/>
+      <c r="P123" s="32"/>
+      <c r="Q123" s="32"/>
+      <c r="R123" s="34"/>
+      <c r="S123" s="32"/>
+      <c r="T123" s="32"/>
+      <c r="U123" s="32"/>
+      <c r="V123" s="32"/>
+      <c r="W123" s="32"/>
+      <c r="X123" s="32"/>
+      <c r="Y123" s="34"/>
+      <c r="Z123" s="32"/>
+      <c r="AA123" s="32"/>
+      <c r="AB123" s="32"/>
+      <c r="AC123" s="32"/>
+      <c r="AD123" s="32"/>
+      <c r="AE123" s="33"/>
+    </row>
+    <row r="124" spans="1:31">
+      <c r="A124" s="46"/>
+      <c r="B124" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="2">
+        <v>40</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2">
+        <v>50</v>
+      </c>
+      <c r="G124" s="2">
+        <v>60</v>
+      </c>
+      <c r="H124" s="12">
+        <v>40</v>
+      </c>
+      <c r="I124" s="12">
+        <v>230</v>
+      </c>
+      <c r="J124" s="12">
+        <v>60</v>
+      </c>
+      <c r="K124" s="1"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="2"/>
+      <c r="AC124" s="2"/>
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="3"/>
+    </row>
+    <row r="125" spans="1:31">
+      <c r="A125" s="46"/>
+      <c r="B125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2">
+        <v>50</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="3"/>
+    </row>
+    <row r="126" spans="1:31">
+      <c r="A126" s="46"/>
+      <c r="B126" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D126" s="2">
+        <v>10</v>
+      </c>
+      <c r="E126" s="2">
+        <v>40</v>
+      </c>
+      <c r="F126" s="2">
+        <v>30</v>
+      </c>
+      <c r="G126" s="12">
+        <v>10</v>
+      </c>
+      <c r="H126" s="12">
+        <v>10</v>
+      </c>
+      <c r="I126" s="12">
+        <v>10</v>
+      </c>
+      <c r="J126" s="12">
+        <v>30</v>
+      </c>
+      <c r="K126" s="1"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
+      <c r="AB126" s="2"/>
+      <c r="AC126" s="2"/>
+      <c r="AD126" s="2"/>
+      <c r="AE126" s="3"/>
+    </row>
+    <row r="127" spans="1:31">
+      <c r="A127" s="46"/>
+      <c r="B127" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="12">
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="12">
         <v>20</v>
       </c>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2">
-        <v>30</v>
-      </c>
-      <c r="K123" s="1"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="1"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
-      <c r="V123" s="2"/>
-      <c r="W123" s="2"/>
-      <c r="X123" s="2"/>
-      <c r="Y123" s="1"/>
-      <c r="Z123" s="2"/>
-      <c r="AA123" s="2"/>
-      <c r="AB123" s="2"/>
-      <c r="AC123" s="2"/>
-      <c r="AD123" s="2"/>
-      <c r="AE123" s="3"/>
-    </row>
-    <row r="124" spans="1:31">
-      <c r="A124" s="47"/>
-      <c r="B124" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C124" s="6" t="s">
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2">
+        <v>30</v>
+      </c>
+      <c r="K127" s="1"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2"/>
+      <c r="V127" s="2"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="2"/>
+      <c r="AA127" s="2"/>
+      <c r="AB127" s="2"/>
+      <c r="AC127" s="2"/>
+      <c r="AD127" s="2"/>
+      <c r="AE127" s="3"/>
+    </row>
+    <row r="128" spans="1:31">
+      <c r="A128" s="47"/>
+      <c r="B128" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D128" s="5">
         <v>15</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E128" s="5">
         <v>15</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F128" s="5">
         <v>15</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G128" s="5">
         <v>40</v>
       </c>
-      <c r="H124" s="5">
+      <c r="H128" s="5">
         <v>20</v>
       </c>
-      <c r="I124" s="5">
+      <c r="I128" s="5">
         <v>20</v>
       </c>
-      <c r="J124" s="5">
+      <c r="J128" s="5">
         <v>20</v>
       </c>
-      <c r="K124" s="4"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-      <c r="R124" s="4"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5"/>
-      <c r="V124" s="5"/>
-      <c r="W124" s="5"/>
-      <c r="X124" s="5"/>
-      <c r="Y124" s="4"/>
-      <c r="Z124" s="5"/>
-      <c r="AA124" s="5"/>
-      <c r="AB124" s="5"/>
-      <c r="AC124" s="5"/>
-      <c r="AD124" s="5"/>
-      <c r="AE124" s="6"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="5"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="5"/>
+      <c r="AE128" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A43"/>
-    <mergeCell ref="A99:A124"/>
-    <mergeCell ref="A44:A60"/>
-    <mergeCell ref="A61:A76"/>
-    <mergeCell ref="A77:A98"/>
+    <mergeCell ref="A103:A128"/>
+    <mergeCell ref="A44:A62"/>
+    <mergeCell ref="A63:A78"/>
+    <mergeCell ref="A79:A102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
